--- a/TemplateQuestionariUtenti.xlsx
+++ b/TemplateQuestionariUtenti.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliana/Documents/Corsi/2018:2019/IUM2019/Lavoro progettuale/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16335" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BEHAVIOURABILITY" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="MEDIE" sheetId="7" r:id="rId6"/>
     <sheet name="TabRisultati" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="117">
   <si>
     <t>TASK T2&lt;breve descriz.&gt;</t>
   </si>
@@ -296,15 +291,132 @@
   <si>
     <t>MEDIA TRA I VALORI MEDI RELATIVI A QUELL'ABILITA'</t>
   </si>
+  <si>
+    <t>T1 MOT</t>
+  </si>
+  <si>
+    <t>3.1: hai mai pensato a fare nuove conoscenze con i tuoi compagni di classe che conosci meno?</t>
+  </si>
+  <si>
+    <t>3.2: hai mai rifiutato un rapporto di amicizia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3: hai mai iniziato una conversazione con i tuoi amici in classe? </t>
+  </si>
+  <si>
+    <t>T1 K&amp;S</t>
+  </si>
+  <si>
+    <t>3.4: come giudichi la tua capacità di rapportarti con i tuoi amici in classe?</t>
+  </si>
+  <si>
+    <t>3.5: come giudichi la tua capacità di comunicare con i tuoi amici di classe?</t>
+  </si>
+  <si>
+    <t>3.6: hai mai cercato di stringere nuove amicizie con i tuoi compagni di classe?</t>
+  </si>
+  <si>
+    <t>T1 SE</t>
+  </si>
+  <si>
+    <t>3.7: come giudichi le tue capacità di allacciare nuovi rapporti con i tuoi compagni di classe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  T2 SE</t>
+  </si>
+  <si>
+    <t>3.8: come giudichi le tue capacità di comunicazione con i docenti in classe?</t>
+  </si>
+  <si>
+    <t>T2 MOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            3.9: hai mai avuto la possibilità di avvicinare dei docenti per comunicare?</t>
+  </si>
+  <si>
+    <t>T3 K&amp;S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            3.10: riesci a crearti del tempo per parlare con tuo figlio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            3.11: quanto tempo riesci a stare con tuo figlio durante il corso della giornata?</t>
+  </si>
+  <si>
+    <t>T3 SE</t>
+  </si>
+  <si>
+    <t>3.14: come giudichi le tue abilità nel capire quando tuo figlio non vuole comunicare determinate cose?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.12: come giudichi le tue capacità di comunicazione?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.13: come giudichi le tue abilità nell’intraprendere una conversazione con tuo figlio?</t>
+  </si>
+  <si>
+    <t>T4 MOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.15: riesci a partecipare alla vita scolastica di tuo figlio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.16: riesci a stare con tuo figlio durante le riunioni scolastiche?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.17: trovi del tempo per capire cosa fa tuo figlio durante le ore scolastiche? </t>
+  </si>
+  <si>
+    <t>T4 K&amp;S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.18: parli mai con tuo figlio di cosa lo circonda durante le ore scolastiche?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.19: parli mai con i genitori di altri alunni della classe di tuo figlio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.20: parli mai con i docenti della classe di tuo figlio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    T5 K&amp;S</t>
+  </si>
+  <si>
+    <t>3.24: proteggi bene I tuoi dati sui vari social che utilizzi?</t>
+  </si>
+  <si>
+    <t>3.25: decidi consapevolmente quali dati inserire nei siti che utilizzi?</t>
+  </si>
+  <si>
+    <t>T5 SE</t>
+  </si>
+  <si>
+    <t>3.26: Aggiungi solo chi conosci realmente?</t>
+  </si>
+  <si>
+    <t>3.27: Ometti dati sensibili in siti non controllati o non sicuri?</t>
+  </si>
+  <si>
+    <t>T6 K&amp;S</t>
+  </si>
+  <si>
+    <t>3.28: Sei a contatto con tuo figlio quando usa internet?</t>
+  </si>
+  <si>
+    <t>3.29: Aiuti tuoi figlio a proteggere i suoi dati?</t>
+  </si>
+  <si>
+    <t>3.30: Controlli i siti che utilizza per comunicare con amici?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +468,21 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -428,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -477,9 +604,45 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -534,7 +697,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -569,7 +732,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -746,14 +909,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
@@ -761,16 +924,16 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -784,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -801,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -818,7 +981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -835,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -852,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -869,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -886,32 +1049,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -923,23 +1086,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="148" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="142.5" thickBot="1">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -965,7 +1128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -980,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="21" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -998,7 +1161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1013,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="F6" t="s">
@@ -1037,13 +1200,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1058,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>41</v>
@@ -1114,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1129,7 +1292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1141,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1151,13 +1314,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1172,7 +1335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="32.25" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -1184,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1194,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="21" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="32.25" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1243,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="H24">
@@ -1251,13 +1414,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -1269,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1284,7 +1447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -1296,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1306,13 +1469,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="32.25" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1327,7 +1490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -1339,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -1349,13 +1512,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21" thickBot="1">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="21" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
@@ -1370,7 +1533,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="32.25" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
@@ -1382,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -1394,23 +1557,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="63" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="148" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="142.5" thickBot="1">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1436,7 +1599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1451,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="21" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1484,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1497,7 +1660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="D6" t="s">
@@ -1508,13 +1671,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1529,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1547,7 +1710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1562,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>41</v>
@@ -1585,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1622,13 +1785,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1643,7 +1806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="32.25" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -1655,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1665,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="21" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="32.25" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1704,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1714,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="H24">
@@ -1722,13 +1885,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -1740,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1755,7 +1918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -1767,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1777,13 +1940,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="32.25" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1798,7 +1961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -1810,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -1820,13 +1983,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21" thickBot="1">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="21" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
@@ -1841,7 +2004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="32.25" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
@@ -1853,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -1865,23 +2028,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="63" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="148" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="142.5" thickBot="1">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1907,7 +2070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1922,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="21" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1940,7 +2103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1955,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="E6" t="s">
@@ -1979,13 +2142,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2000,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -2018,7 +2181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -2033,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>41</v>
@@ -2056,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -2074,7 +2237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -2089,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2102,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
         <v>44</v>
@@ -2111,7 +2274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -2129,7 +2292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="32.25" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -2144,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -2157,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2172,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="21" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="32.25" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2205,7 +2368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -2218,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="G24" t="s">
@@ -2229,13 +2392,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -2247,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2262,7 +2425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -2274,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -2284,13 +2447,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="32.25" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -2305,7 +2468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -2317,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -2327,13 +2490,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21" thickBot="1">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="21" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
@@ -2348,7 +2511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="32.25" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
@@ -2360,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -2372,23 +2535,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="63" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="148" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="142.5" thickBot="1">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2414,7 +2577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2432,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="21" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -2450,7 +2613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2465,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -2478,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="G6" t="s">
@@ -2489,13 +2652,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2510,7 +2673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -2546,7 +2709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2559,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>41</v>
@@ -2569,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -2587,7 +2750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -2605,7 +2768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2618,13 +2781,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -2642,7 +2805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="32.25" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -2657,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -2670,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="21" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2703,7 +2866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="32.25" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2718,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +2894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="F24" t="s">
@@ -2742,13 +2905,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -2760,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2775,7 +2938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -2787,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -2797,13 +2960,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="32.25" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -2818,7 +2981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -2830,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -2840,13 +3003,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21" thickBot="1">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="21" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
@@ -2861,7 +3024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="32.25" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
@@ -2873,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -2885,25 +3048,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="26.625" customWidth="1"/>
+    <col min="10" max="10" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="41.25" thickBot="1">
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>25</v>
@@ -2925,7 +3088,7 @@
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2943,7 +3106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -2958,7 +3121,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2973,7 +3136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="21" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -2986,7 +3149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="21" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="H6" s="10">
@@ -2997,7 +3160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" thickBot="1">
       <c r="A7" s="5"/>
       <c r="H7" s="15">
         <f>AVERAGE(H2:H6)</f>
@@ -3010,7 +3173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="21" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -3022,7 +3185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -3034,7 +3197,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="21" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -3046,7 +3209,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -3056,7 +3219,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="21" thickBot="1">
       <c r="A12" s="5"/>
       <c r="H12" s="15">
         <f>AVERAGE(H8:H11)</f>
@@ -3066,7 +3229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="32.25" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -3078,7 +3241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="21" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -3090,7 +3253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="21" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3100,7 +3263,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="21" thickBot="1">
       <c r="A16" s="5"/>
       <c r="H16" s="15">
         <f>AVERAGE(H13:H15)</f>
@@ -3110,7 +3273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="21" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -3123,7 +3286,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="32.25" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -3135,7 +3298,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="21" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -3145,7 +3308,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="21" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -3157,7 +3320,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="21" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -3169,7 +3332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="32.25" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -3181,7 +3344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="21" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -3191,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="21" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="H24" s="10">
@@ -3199,7 +3362,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="21" thickBot="1">
       <c r="A25" s="5"/>
       <c r="H25" s="11">
         <f>AVERAGE(H17:H24)</f>
@@ -3209,7 +3372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="21" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -3221,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="21" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -3233,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="21" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -3245,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="21" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -3255,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="21" thickBot="1">
       <c r="A30" s="5"/>
       <c r="H30" s="11">
         <f>AVERAGE(H26:H29)</f>
@@ -3265,7 +3428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="32.25" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -3277,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="21" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -3289,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="21" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -3299,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="21" thickBot="1">
       <c r="A34" s="5"/>
       <c r="H34" s="11">
         <f>AVERAGE(H31:H33)</f>
@@ -3309,7 +3472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="21" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
@@ -3322,7 +3485,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="32.25" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
@@ -3334,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="21" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -3353,16 +3516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
@@ -3379,28 +3542,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="17">
-        <f>MEDIE!H7</f>
-        <v>3.55</v>
-      </c>
-      <c r="C2" s="17">
-        <f>MEDIE!H12</f>
-        <v>3.125</v>
-      </c>
-      <c r="D2" s="16">
-        <f>MEDIE!H16</f>
-        <v>2.4166666666666665</v>
-      </c>
-      <c r="E2" s="16">
-        <f>MEDIE!H25</f>
-        <v>1.84375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>73</v>
       </c>
@@ -3409,7 +3560,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>74</v>
       </c>
@@ -3418,7 +3569,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" thickBot="1">
       <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
@@ -3427,7 +3578,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>76</v>
       </c>
@@ -3436,7 +3587,207 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
     </row>
+    <row r="8" spans="1:5" ht="21">
+      <c r="A8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="22"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
+      <c r="A12" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
+      <c r="A14" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21">
+      <c r="A19" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="21">
+      <c r="A23" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="21">
+      <c r="A26" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="21">
+      <c r="A30" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21">
+      <c r="A33" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="24"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="21">
+      <c r="A38" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="21">
+      <c r="A40" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="21">
+      <c r="A42" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="21">
+      <c r="A46" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="26"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>